--- a/medicine/Mort/Liste_des_emplacements_de_la_guillotine_à_Paris_lors_de_la_Révolution_française/Liste_des_emplacements_de_la_guillotine_à_Paris_lors_de_la_Révolution_française.xlsx
+++ b/medicine/Mort/Liste_des_emplacements_de_la_guillotine_à_Paris_lors_de_la_Révolution_française/Liste_des_emplacements_de_la_guillotine_à_Paris_lors_de_la_Révolution_française.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_emplacements_de_la_guillotine_%C3%A0_Paris_lors_de_la_R%C3%A9volution_fran%C3%A7aise</t>
+          <t>Liste_des_emplacements_de_la_guillotine_à_Paris_lors_de_la_Révolution_française</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Paris, durant la Révolution française, les exécutions capitales faites à l'aide d'une guillotine ont eu lieu dans les endroits suivants[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Paris, durant la Révolution française, les exécutions capitales faites à l'aide d'une guillotine ont eu lieu dans les endroits suivants :
 	Plaques commémorant le bicentenaire de la Révolution, rappelant l'emplacement de la guillotine à Paris
 			Barrière du Trône.
 			Place de la Révolution (actuelle place de la Concorde).
